--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -315,7 +315,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -323,23 +323,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -347,10 +348,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.5" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1796,273 +1797,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6634185-A000-4BF0-AEEB-DD3A054E717C}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C88F30B-1CF6-4532-B4D7-AB44E515B036}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A2BF25-7E94-427E-BCA4-7765CF416391}"/>
 </file>
--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="93">
   <si>
     <t>Sezione</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -340,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -502,13 +511,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -516,19 +525,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -536,19 +545,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -556,19 +565,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -576,19 +585,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -596,19 +605,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -616,19 +625,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -636,19 +645,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -656,19 +665,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -676,19 +685,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -696,19 +705,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -716,19 +725,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -736,19 +745,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -756,19 +765,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -776,19 +785,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -796,19 +805,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -816,19 +825,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -836,19 +845,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -856,19 +865,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -876,19 +885,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -896,19 +905,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -916,19 +925,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -936,19 +945,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -956,19 +965,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -976,19 +985,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -996,19 +1005,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1016,19 +1025,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1036,19 +1045,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1056,19 +1065,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1076,19 +1085,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1096,19 +1105,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1116,19 +1125,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1136,19 +1145,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1156,19 +1165,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1176,19 +1185,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1196,19 +1205,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1216,19 +1225,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1236,19 +1245,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1256,19 +1265,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1276,19 +1285,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1296,19 +1305,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1316,19 +1325,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1336,19 +1345,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1356,19 +1365,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1376,19 +1385,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1396,19 +1405,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1416,19 +1425,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1436,19 +1445,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1456,19 +1465,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1476,19 +1485,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1496,19 +1505,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1516,19 +1525,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1536,19 +1545,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1556,19 +1565,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1576,19 +1585,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1596,19 +1605,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1616,19 +1625,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1636,19 +1645,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1656,19 +1665,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1676,19 +1685,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1696,19 +1705,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1716,19 +1725,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1736,19 +1745,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1756,19 +1765,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1776,21 +1785,41 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="F72" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,22 +74,46 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
     <t>Cognome</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>
@@ -349,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -359,7 +383,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -511,13 +535,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -525,19 +549,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -545,19 +569,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -565,19 +589,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -585,19 +609,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -605,16 +629,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -625,7 +649,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -634,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -645,16 +669,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -665,16 +689,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -685,16 +709,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -705,16 +729,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -725,16 +749,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -745,16 +769,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -765,16 +789,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -785,16 +809,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -805,16 +829,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -825,16 +849,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -845,16 +869,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -865,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -885,16 +909,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -905,16 +929,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -925,19 +949,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -945,19 +969,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -965,19 +989,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -985,19 +1009,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1005,19 +1029,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1025,19 +1049,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1045,16 +1069,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>41</v>
@@ -1065,16 +1089,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>43</v>
@@ -1085,16 +1109,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>45</v>
@@ -1105,16 +1129,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>47</v>
@@ -1125,16 +1149,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>49</v>
@@ -1145,16 +1169,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>51</v>
@@ -1165,16 +1189,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>53</v>
@@ -1185,16 +1209,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>55</v>
@@ -1205,16 +1229,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>57</v>
@@ -1225,16 +1249,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>59</v>
@@ -1245,16 +1269,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>61</v>
@@ -1265,16 +1289,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>63</v>
@@ -1285,16 +1309,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>65</v>
@@ -1305,19 +1329,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1325,19 +1349,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1345,19 +1369,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1365,19 +1389,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1385,19 +1409,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1405,19 +1429,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1425,19 +1449,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1445,19 +1469,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1465,19 +1489,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1485,16 +1509,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>41</v>
@@ -1505,16 +1529,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>43</v>
@@ -1525,16 +1549,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>45</v>
@@ -1545,16 +1569,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>47</v>
@@ -1565,16 +1589,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>49</v>
@@ -1585,16 +1609,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>51</v>
@@ -1605,16 +1629,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>53</v>
@@ -1625,16 +1649,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>55</v>
@@ -1645,16 +1669,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>57</v>
@@ -1665,16 +1689,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>59</v>
@@ -1685,16 +1709,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>61</v>
@@ -1705,16 +1729,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>63</v>
@@ -1725,16 +1749,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>65</v>
@@ -1745,19 +1769,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1765,19 +1789,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1785,19 +1809,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1805,21 +1829,101 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="104">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -242,6 +248,9 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -299,7 +308,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -373,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -385,6 +394,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -406,25 +416,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -446,1485 +462,1710 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -394,7 +394,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="105">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.1.2</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.1.2</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -463,1709 +466,1709 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="107">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -385,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -937,7 +943,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1029,7 +1035,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1138,283 +1144,283 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>88</v>
@@ -1423,21 +1429,21 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>89</v>
@@ -1446,67 +1452,67 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>92</v>
@@ -1515,21 +1521,21 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>93</v>
@@ -1538,21 +1544,21 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>94</v>
@@ -1561,274 +1567,274 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>84</v>
@@ -1837,21 +1843,21 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>85</v>
@@ -1860,292 +1866,292 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
@@ -2153,21 +2159,90 @@
         <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="B78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -131,6 +131,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -255,9 +258,6 @@
   </si>
   <si>
     <t>evento.madre</t>
-  </si>
-  <si>
-    <t>opzionale</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -702,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -710,7 +710,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -719,13 +719,13 @@
         <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -733,7 +733,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -742,13 +742,13 @@
         <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -756,7 +756,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -765,13 +765,13 @@
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -779,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -788,13 +788,13 @@
         <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +802,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -811,13 +811,13 @@
         <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -825,7 +825,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -834,13 +834,13 @@
         <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -848,7 +848,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -857,13 +857,13 @@
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -880,13 +880,13 @@
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
@@ -903,13 +903,13 @@
         <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -917,7 +917,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -926,13 +926,13 @@
         <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -940,7 +940,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -949,13 +949,13 @@
         <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -963,7 +963,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -972,13 +972,13 @@
         <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -986,7 +986,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -995,13 +995,13 @@
         <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -1009,7 +1009,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -1018,13 +1018,13 @@
         <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -1032,7 +1032,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1041,13 +1041,13 @@
         <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1055,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -1064,13 +1064,13 @@
         <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
@@ -1078,7 +1078,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -1087,13 +1087,13 @@
         <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -1101,7 +1101,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -1110,13 +1110,13 @@
         <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
@@ -1124,7 +1124,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -1133,13 +1133,13 @@
         <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -1156,18 +1156,18 @@
         <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
@@ -1176,7 +1176,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>38</v>
@@ -1185,81 +1185,81 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>82</v>
@@ -1268,21 +1268,21 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>83</v>
@@ -1291,21 +1291,21 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>84</v>
@@ -1314,21 +1314,21 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
@@ -1337,21 +1337,21 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>86</v>
@@ -1360,21 +1360,21 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>87</v>
@@ -1383,44 +1383,44 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>88</v>
@@ -1429,21 +1429,21 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>89</v>
@@ -1452,21 +1452,21 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>90</v>
@@ -1475,21 +1475,21 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>91</v>
@@ -1498,21 +1498,21 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>92</v>
@@ -1521,21 +1521,21 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>93</v>
@@ -1544,21 +1544,21 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>94</v>
@@ -1567,21 +1567,21 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>95</v>
@@ -1590,21 +1590,21 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>96</v>
@@ -1613,21 +1613,21 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>97</v>
@@ -1636,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>98</v>
@@ -1645,12 +1645,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>99</v>
@@ -1659,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>100</v>
@@ -1668,12 +1668,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>101</v>
@@ -1682,7 +1682,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>102</v>
@@ -1691,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
@@ -1714,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
@@ -1722,7 +1722,7 @@
         <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1731,13 +1731,13 @@
         <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
@@ -1745,7 +1745,7 @@
         <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -1754,13 +1754,13 @@
         <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
@@ -1768,7 +1768,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -1777,13 +1777,13 @@
         <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
@@ -1800,13 +1800,13 @@
         <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
@@ -1823,13 +1823,13 @@
         <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
@@ -1846,13 +1846,13 @@
         <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
@@ -1869,13 +1869,13 @@
         <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
@@ -1892,13 +1892,13 @@
         <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
@@ -1915,13 +1915,13 @@
         <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
@@ -1929,7 +1929,7 @@
         <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
@@ -1938,13 +1938,13 @@
         <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
@@ -1961,13 +1961,13 @@
         <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69">
@@ -1984,13 +1984,13 @@
         <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
@@ -2007,13 +2007,13 @@
         <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
@@ -2030,13 +2030,13 @@
         <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
@@ -2053,13 +2053,13 @@
         <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
@@ -2076,13 +2076,13 @@
         <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
@@ -2099,13 +2099,13 @@
         <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
@@ -2122,13 +2122,13 @@
         <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
@@ -2145,13 +2145,13 @@
         <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
@@ -2174,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
@@ -2197,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
@@ -2220,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Madre</t>
@@ -391,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1167,19 +1191,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1190,19 +1214,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1213,19 +1237,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1236,19 +1260,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1259,19 +1283,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1282,19 +1306,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1305,19 +1329,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1328,19 +1352,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1351,19 +1375,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1374,19 +1398,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1397,19 +1421,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1420,19 +1444,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1443,19 +1467,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1466,19 +1490,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1489,19 +1513,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1536,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1559,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1558,19 +1582,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1581,19 +1605,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1628,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1651,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1674,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1697,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1720,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1743,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1766,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1789,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1812,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1835,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1834,7 +1858,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>84</v>
@@ -1843,10 +1867,10 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1881,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1904,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1927,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1950,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1973,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1996,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2019,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2042,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2065,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2088,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2111,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2134,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2157,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2156,7 +2180,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>97</v>
@@ -2165,10 +2189,10 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2203,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2226,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2225,24 +2249,300 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -302,10 +308,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -415,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -783,7 +786,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -875,7 +878,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -990,7 +993,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -1082,7 +1085,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -1283,19 +1286,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1306,19 +1309,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1329,19 +1332,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1352,19 +1355,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1375,19 +1378,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1398,19 +1401,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1421,19 +1424,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1444,19 +1447,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>94</v>
@@ -1476,10 +1479,10 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1490,7 +1493,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>95</v>
@@ -1499,10 +1502,10 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1516,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1539,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1562,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1585,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1608,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1631,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1654,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1677,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1700,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1723,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1746,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1769,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1792,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1815,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1838,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1861,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1884,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1907,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1930,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1953,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1976,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1996,19 +1999,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2022,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2045,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2068,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2091,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2114,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2137,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2160,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2183,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2206,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2229,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2252,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2275,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2298,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2321,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2344,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2367,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2390,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2413,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2436,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2459,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2482,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2505,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2525,24 +2528,93 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -418,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -671,7 +677,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -1062,7 +1068,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1085,7 +1091,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -1309,19 +1315,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1332,19 +1338,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1355,19 +1361,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1378,19 +1384,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1401,19 +1407,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1424,19 +1430,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1447,19 +1453,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1470,19 +1476,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1493,19 +1499,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1516,19 +1522,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1539,19 +1545,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1562,19 +1568,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1614,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1637,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1660,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>101</v>
@@ -1686,10 +1692,10 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>102</v>
@@ -1709,10 +1715,10 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>103</v>
@@ -1732,10 +1738,10 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>104</v>
@@ -1755,10 +1761,10 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>105</v>
@@ -1778,10 +1784,10 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1861,19 +1867,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1884,19 +1890,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1913,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1959,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1982,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2005,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2028,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2051,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2074,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2097,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2143,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2160,7 +2166,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>96</v>
@@ -2169,10 +2175,10 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2183,7 +2189,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>97</v>
@@ -2192,10 +2198,10 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2212,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2281,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2298,7 +2304,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>100</v>
@@ -2307,10 +2313,10 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2350,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2373,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2396,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2534,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2580,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2600,21 +2606,90 @@
         <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -424,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1663,7 +1669,7 @@
         <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
@@ -1672,7 +1678,7 @@
         <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1686,7 +1692,7 @@
         <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
@@ -1695,7 +1701,7 @@
         <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1709,7 +1715,7 @@
         <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
@@ -1718,7 +1724,7 @@
         <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1732,7 +1738,7 @@
         <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
@@ -1741,7 +1747,7 @@
         <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1755,7 +1761,7 @@
         <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
@@ -1764,7 +1770,7 @@
         <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1778,7 +1784,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
@@ -1787,7 +1793,7 @@
         <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1801,7 +1807,7 @@
         <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
@@ -1810,7 +1816,7 @@
         <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1824,7 +1830,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
@@ -1833,7 +1839,7 @@
         <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1847,16 +1853,16 @@
         <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1896,7 +1902,7 @@
         <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>93</v>
@@ -1916,7 +1922,7 @@
         <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
@@ -1925,7 +1931,7 @@
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1939,7 +1945,7 @@
         <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
@@ -1948,7 +1954,7 @@
         <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1962,7 +1968,7 @@
         <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
@@ -1971,7 +1977,7 @@
         <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1985,7 +1991,7 @@
         <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
@@ -1994,7 +2000,7 @@
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2034,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2080,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2103,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2218,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2264,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>101</v>
@@ -2359,10 +2365,10 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>103</v>
@@ -2405,10 +2411,10 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2419,7 +2425,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>104</v>
@@ -2428,10 +2434,10 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2442,7 +2448,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>105</v>
@@ -2451,10 +2457,10 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2465,7 +2471,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>106</v>
@@ -2474,10 +2480,10 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>107</v>
@@ -2497,10 +2503,10 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2675,21 +2681,67 @@
         <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -723,62 +729,62 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -787,12 +793,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
@@ -801,7 +807,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -810,21 +816,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -833,12 +839,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -847,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -856,12 +862,12 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -870,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -879,12 +885,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
@@ -893,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -902,21 +908,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -925,12 +931,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
@@ -939,7 +945,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -948,12 +954,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -962,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -971,12 +977,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
@@ -985,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -994,12 +1000,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
@@ -1008,7 +1014,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1017,21 +1023,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1040,12 +1046,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1054,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1063,21 +1069,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1086,12 +1092,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1100,7 +1106,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1109,12 +1115,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
@@ -1123,7 +1129,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1132,12 +1138,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1146,7 +1152,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1155,12 +1161,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
@@ -1169,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1178,12 +1184,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
@@ -1192,7 +1198,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1201,12 +1207,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1215,7 +1221,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1224,12 +1230,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1238,7 +1244,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1247,12 +1253,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
@@ -1261,7 +1267,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1270,12 +1276,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1284,7 +1290,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1293,12 +1299,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1307,7 +1313,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1316,12 +1322,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1330,7 +1336,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1339,90 +1345,90 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>47</v>
@@ -1431,12 +1437,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>48</v>
@@ -1445,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>49</v>
@@ -1454,21 +1460,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>51</v>
@@ -1477,21 +1483,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>53</v>
@@ -1500,21 +1506,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>55</v>
@@ -1523,21 +1529,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>57</v>
@@ -1546,21 +1552,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>59</v>
@@ -1569,21 +1575,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>61</v>
@@ -1592,21 +1598,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>63</v>
@@ -1615,21 +1621,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>65</v>
@@ -1638,21 +1644,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>67</v>
@@ -1661,67 +1667,67 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>71</v>
@@ -1730,21 +1736,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>73</v>
@@ -1753,21 +1759,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>75</v>
@@ -1776,21 +1782,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>77</v>
@@ -1799,21 +1805,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>79</v>
@@ -1822,21 +1828,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>81</v>
@@ -1845,21 +1851,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>83</v>
@@ -1868,35 +1874,35 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>112</v>
@@ -1905,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>113</v>
@@ -1914,21 +1920,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>115</v>
@@ -1937,35 +1943,35 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>86</v>
@@ -1974,7 +1980,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>87</v>
@@ -1983,12 +1989,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>88</v>
@@ -1997,7 +2003,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>89</v>
@@ -2006,12 +2012,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>90</v>
@@ -2020,7 +2026,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>91</v>
@@ -2029,90 +2035,90 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>47</v>
@@ -2121,12 +2127,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>48</v>
@@ -2135,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>49</v>
@@ -2144,21 +2150,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>51</v>
@@ -2167,21 +2173,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>53</v>
@@ -2190,21 +2196,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>55</v>
@@ -2213,21 +2219,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>57</v>
@@ -2236,21 +2242,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>59</v>
@@ -2259,21 +2265,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>61</v>
@@ -2282,21 +2288,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>63</v>
@@ -2305,21 +2311,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>65</v>
@@ -2328,21 +2334,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>67</v>
@@ -2351,67 +2357,67 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>71</v>
@@ -2420,21 +2426,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>73</v>
@@ -2443,21 +2449,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>75</v>
@@ -2466,21 +2472,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>77</v>
@@ -2489,21 +2495,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>79</v>
@@ -2512,21 +2518,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>81</v>
@@ -2535,21 +2541,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>83</v>
@@ -2558,35 +2564,35 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>112</v>
@@ -2595,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>113</v>
@@ -2604,21 +2610,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2627,35 +2633,35 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>86</v>
@@ -2664,7 +2670,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>87</v>
@@ -2673,12 +2679,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>88</v>
@@ -2687,7 +2693,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>89</v>
@@ -2696,12 +2702,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>90</v>
@@ -2710,7 +2716,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>91</v>
@@ -2719,7 +2725,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100">
@@ -2727,21 +2733,44 @@
         <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -436,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -729,62 +723,62 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -793,12 +787,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
@@ -807,7 +801,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -816,21 +810,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -839,12 +833,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -853,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -862,12 +856,12 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -876,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -885,12 +879,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
@@ -899,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -908,21 +902,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -931,12 +925,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
@@ -945,7 +939,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -954,12 +948,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -968,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -977,12 +971,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
@@ -991,7 +985,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1000,12 +994,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
@@ -1014,7 +1008,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1023,21 +1017,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1046,12 +1040,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1060,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1069,21 +1063,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1092,12 +1086,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1106,7 +1100,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1115,12 +1109,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
@@ -1129,7 +1123,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1138,12 +1132,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1152,7 +1146,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1161,12 +1155,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
@@ -1175,7 +1169,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1184,12 +1178,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
@@ -1198,7 +1192,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1207,12 +1201,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1221,7 +1215,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1230,12 +1224,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1244,7 +1238,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1253,12 +1247,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
@@ -1267,7 +1261,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1276,12 +1270,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1290,7 +1284,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1299,12 +1293,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1313,7 +1307,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1322,12 +1316,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1336,7 +1330,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1345,90 +1339,90 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>47</v>
@@ -1437,12 +1431,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>48</v>
@@ -1451,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>49</v>
@@ -1460,21 +1454,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>51</v>
@@ -1483,21 +1477,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>53</v>
@@ -1506,21 +1500,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>55</v>
@@ -1529,21 +1523,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>57</v>
@@ -1552,21 +1546,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>59</v>
@@ -1575,21 +1569,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>61</v>
@@ -1598,21 +1592,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>63</v>
@@ -1621,21 +1615,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>65</v>
@@ -1644,21 +1638,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>67</v>
@@ -1667,67 +1661,67 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>71</v>
@@ -1736,21 +1730,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>73</v>
@@ -1759,21 +1753,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>75</v>
@@ -1782,21 +1776,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>77</v>
@@ -1805,21 +1799,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>79</v>
@@ -1828,21 +1822,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>81</v>
@@ -1851,21 +1845,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>83</v>
@@ -1874,35 +1868,35 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>112</v>
@@ -1911,7 +1905,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>113</v>
@@ -1920,21 +1914,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>115</v>
@@ -1943,35 +1937,35 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>86</v>
@@ -1980,7 +1974,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>87</v>
@@ -1989,12 +1983,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>88</v>
@@ -2003,7 +1997,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>89</v>
@@ -2012,12 +2006,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>90</v>
@@ -2026,7 +2020,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>91</v>
@@ -2035,90 +2029,90 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>47</v>
@@ -2127,12 +2121,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>48</v>
@@ -2141,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>49</v>
@@ -2150,21 +2144,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>51</v>
@@ -2173,21 +2167,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>53</v>
@@ -2196,21 +2190,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>55</v>
@@ -2219,21 +2213,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>57</v>
@@ -2242,21 +2236,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>59</v>
@@ -2265,21 +2259,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>61</v>
@@ -2288,21 +2282,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>63</v>
@@ -2311,21 +2305,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>65</v>
@@ -2334,21 +2328,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>67</v>
@@ -2357,67 +2351,67 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>71</v>
@@ -2426,21 +2420,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>73</v>
@@ -2449,21 +2443,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>75</v>
@@ -2472,21 +2466,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>77</v>
@@ -2495,21 +2489,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>79</v>
@@ -2518,21 +2512,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>81</v>
@@ -2541,21 +2535,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>83</v>
@@ -2564,35 +2558,35 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>112</v>
@@ -2601,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>113</v>
@@ -2610,21 +2604,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2633,35 +2627,35 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>86</v>
@@ -2670,7 +2664,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>87</v>
@@ -2679,12 +2673,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>88</v>
@@ -2693,7 +2687,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>89</v>
@@ -2702,12 +2696,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>90</v>
@@ -2716,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>91</v>
@@ -2725,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100">
@@ -2733,44 +2727,21 @@
         <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -436,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -873,7 +885,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -896,7 +908,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
@@ -942,7 +954,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -965,7 +977,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
@@ -1057,7 +1069,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
@@ -1080,7 +1092,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1103,7 +1115,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1126,7 +1138,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
@@ -1373,19 +1385,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1408,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1431,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1454,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1465,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1488,19 +1500,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1523,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1569,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1592,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1615,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1638,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1661,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1684,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1730,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1753,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1776,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1787,7 +1799,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>107</v>
@@ -1796,10 +1808,10 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1822,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1833,7 +1845,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>109</v>
@@ -1842,10 +1854,10 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1856,7 +1868,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>110</v>
@@ -1865,10 +1877,10 @@
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1879,7 +1891,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>111</v>
@@ -1888,10 +1900,10 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1914,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1937,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1960,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1983,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2006,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2029,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2052,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2075,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2098,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2121,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2144,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2167,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2190,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2213,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2236,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2259,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2282,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2305,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2328,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2351,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2374,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2385,7 +2397,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>103</v>
@@ -2394,10 +2406,10 @@
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2420,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2431,7 +2443,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>105</v>
@@ -2440,10 +2452,10 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2466,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2477,19 +2489,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2512,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2535,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2558,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2581,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2604,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2627,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2650,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2673,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2696,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2719,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2742,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2753,24 +2765,162 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -510,63 +516,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -575,90 +581,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -667,21 +673,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -690,12 +696,12 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -704,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -713,21 +719,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -736,21 +742,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -759,67 +765,67 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -828,21 +834,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -851,12 +857,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -865,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -874,21 +880,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -897,21 +903,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -920,12 +926,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
@@ -934,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -943,21 +949,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -966,21 +972,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -989,21 +995,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1012,21 +1018,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1035,21 +1041,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1058,21 +1064,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1081,21 +1087,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1104,12 +1110,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1118,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1127,21 +1133,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1150,21 +1156,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1173,21 +1179,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1196,21 +1202,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1219,21 +1225,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1242,21 +1248,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1265,21 +1271,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1288,21 +1294,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1311,21 +1317,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1334,21 +1340,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1357,21 +1363,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1380,21 +1386,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1403,21 +1409,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1426,81 +1432,81 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>48</v>
@@ -1509,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>49</v>
@@ -1518,21 +1524,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>51</v>
@@ -1541,21 +1547,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>53</v>
@@ -1564,12 +1570,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>54</v>
@@ -1578,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
@@ -1587,21 +1593,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>57</v>
@@ -1610,21 +1616,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>59</v>
@@ -1633,21 +1639,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>61</v>
@@ -1656,21 +1662,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>63</v>
@@ -1679,21 +1685,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>65</v>
@@ -1702,21 +1708,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>67</v>
@@ -1725,21 +1731,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>69</v>
@@ -1748,12 +1754,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>70</v>
@@ -1762,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>71</v>
@@ -1771,21 +1777,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>73</v>
@@ -1794,67 +1800,67 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>77</v>
@@ -1863,21 +1869,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>79</v>
@@ -1886,21 +1892,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>81</v>
@@ -1909,21 +1915,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>83</v>
@@ -1932,21 +1938,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>85</v>
@@ -1955,21 +1961,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>87</v>
@@ -1978,21 +1984,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>89</v>
@@ -2001,44 +2007,44 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>119</v>
@@ -2047,21 +2053,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>121</v>
@@ -2070,44 +2076,44 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
@@ -2116,21 +2122,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>95</v>
@@ -2139,21 +2145,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>97</v>
@@ -2162,81 +2168,81 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>48</v>
@@ -2245,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>49</v>
@@ -2254,21 +2260,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>51</v>
@@ -2277,21 +2283,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>53</v>
@@ -2300,12 +2306,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>54</v>
@@ -2314,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>55</v>
@@ -2323,21 +2329,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>57</v>
@@ -2346,21 +2352,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>59</v>
@@ -2369,21 +2375,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>61</v>
@@ -2392,21 +2398,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>63</v>
@@ -2415,21 +2421,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>65</v>
@@ -2438,21 +2444,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>67</v>
@@ -2461,21 +2467,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>69</v>
@@ -2484,12 +2490,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>70</v>
@@ -2498,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>71</v>
@@ -2507,21 +2513,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>73</v>
@@ -2530,67 +2536,67 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>77</v>
@@ -2599,21 +2605,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>79</v>
@@ -2622,21 +2628,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>81</v>
@@ -2645,21 +2651,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>83</v>
@@ -2668,21 +2674,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>85</v>
@@ -2691,21 +2697,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>87</v>
@@ -2714,21 +2720,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>89</v>
@@ -2737,44 +2743,44 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>119</v>
@@ -2783,21 +2789,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>121</v>
@@ -2806,44 +2812,44 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>93</v>
@@ -2852,21 +2858,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>95</v>
@@ -2875,21 +2881,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>97</v>
@@ -2898,7 +2904,7 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107">
@@ -2906,22 +2912,45 @@
         <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -793,62 +799,62 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -857,12 +863,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -871,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -880,21 +886,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -903,21 +909,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -926,12 +932,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
@@ -940,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -949,21 +955,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -972,12 +978,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -986,7 +992,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -995,12 +1001,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
@@ -1009,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1018,21 +1024,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1041,12 +1047,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
@@ -1055,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1064,12 +1070,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1078,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1087,12 +1093,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1101,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1110,12 +1116,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1124,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1133,21 +1139,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1156,12 +1162,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1170,7 +1176,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1179,21 +1185,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1202,12 +1208,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
@@ -1216,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1225,12 +1231,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1239,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1248,12 +1254,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1262,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1271,12 +1277,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
@@ -1285,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1294,12 +1300,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1308,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1317,12 +1323,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1331,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1340,12 +1346,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1354,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1363,12 +1369,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -1377,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1386,12 +1392,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1400,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1409,12 +1415,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1423,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1432,12 +1438,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1446,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1455,90 +1461,90 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>51</v>
@@ -1547,21 +1553,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>53</v>
@@ -1570,12 +1576,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>54</v>
@@ -1584,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
@@ -1593,21 +1599,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>57</v>
@@ -1616,21 +1622,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>59</v>
@@ -1639,21 +1645,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>61</v>
@@ -1662,21 +1668,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>63</v>
@@ -1685,21 +1691,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>65</v>
@@ -1708,21 +1714,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>67</v>
@@ -1731,21 +1737,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>69</v>
@@ -1754,21 +1760,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>71</v>
@@ -1777,21 +1783,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>73</v>
@@ -1800,21 +1806,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
@@ -1823,67 +1829,67 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>79</v>
@@ -1892,21 +1898,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>81</v>
@@ -1915,21 +1921,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>83</v>
@@ -1938,21 +1944,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>85</v>
@@ -1961,21 +1967,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>87</v>
@@ -1984,21 +1990,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>89</v>
@@ -2007,21 +2013,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>91</v>
@@ -2030,35 +2036,35 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>120</v>
@@ -2067,7 +2073,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>121</v>
@@ -2076,21 +2082,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>123</v>
@@ -2099,35 +2105,35 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>94</v>
@@ -2136,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>95</v>
@@ -2145,12 +2151,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>96</v>
@@ -2159,7 +2165,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>97</v>
@@ -2168,12 +2174,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
@@ -2182,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>99</v>
@@ -2191,90 +2197,90 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>51</v>
@@ -2283,21 +2289,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>53</v>
@@ -2306,12 +2312,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>54</v>
@@ -2320,7 +2326,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>55</v>
@@ -2329,21 +2335,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>57</v>
@@ -2352,21 +2358,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>59</v>
@@ -2375,21 +2381,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>61</v>
@@ -2398,21 +2404,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>63</v>
@@ -2421,21 +2427,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>65</v>
@@ -2444,21 +2450,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>67</v>
@@ -2467,21 +2473,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>69</v>
@@ -2490,21 +2496,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>71</v>
@@ -2513,21 +2519,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>73</v>
@@ -2536,21 +2542,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>75</v>
@@ -2559,67 +2565,67 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>79</v>
@@ -2628,21 +2634,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>81</v>
@@ -2651,21 +2657,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>83</v>
@@ -2674,21 +2680,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>85</v>
@@ -2697,21 +2703,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>87</v>
@@ -2720,21 +2726,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>89</v>
@@ -2743,21 +2749,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>91</v>
@@ -2766,35 +2772,35 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>120</v>
@@ -2803,7 +2809,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>121</v>
@@ -2812,21 +2818,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>123</v>
@@ -2835,35 +2841,35 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>94</v>
@@ -2872,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>95</v>
@@ -2881,12 +2887,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>96</v>
@@ -2895,7 +2901,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>97</v>
@@ -2904,12 +2910,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>98</v>
@@ -2918,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>99</v>
@@ -2927,7 +2933,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
@@ -2935,21 +2941,44 @@
         <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>19</v>
       </c>
     </row>
